--- a/Question_Set2/Role-specific skills/Software Architect.xlsx
+++ b/Question_Set2/Role-specific skills/Software Architect.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are asked to develop an architecture for a platform-independent, browser-based, online two-player game. You are given the following requirements:The rules of the game (who starts the game, valid moves, when the game ends, how to select the winner).The browsers that should support this game.The accessibility of the game: It should be accessible to anyone for free, without logging in or purchasing.The target launch date.Which of the following statements is true?', 'ques_type': 2, 'options': ['The requirements do not specify the OS (Windows/Linux/Mac) to be supported.', 'The requirements do not specify if it is a multi-player game.', 'The requirements do not specify whether it is a desktop-based game.', 'There is enough information to begin working on the software/UI design.'], 'score': 'There is enough information to begin working on the software/UI design.'}, {'title': 'Your company plans to use cloud data storage solutions for storing some sensitive business data. You recommend that the company encrypt the data before uploading it to the cloud.Which of the following solutions would you recommend?', 'ques_type': 2, 'options': ['Encrypt data using symmetric encryption algorithms like AES.', 'Encrypt data using asymmetric encryption algorithms like RSA.', 'Use encoding techniques like Base64.', 'Use a digital signature algorithm like ECDSA.'], 'score': 'Encrypt data using symmetric encryption algorithms like AES.'}, {'title': 'You are overseeing the development of a reporting project for a large e-commerce company with hundreds of thousands of affiliates bringing in traffic and orders. Every month, the company generates a report on the fees to be paid per affiliate, and a report containing the list of orders per affiliate (and some additional details) in CSV/PDF format. On average, each report will be accessed two or three times in its lifetime.Which storage solution do you propose for the reports?', 'ques_type': 2, 'options': ['Use a relational database to store the CSV report as one of the columns.', 'Use a key-value store like Redis to store the contents of the report.', 'Use a blob store like Amazon S3/Google cloud platform to store the report and have a reference to the file in the database. ', 'Use a NoSQL storage like Cassandra.'], 'score': 'Use a blob store like Amazon S3/Google cloud platform to store the report and have a reference to the file in the database. '}, {'title': 'Your company has recently decided to transition from a monolithic architecture to a service-oriented architecture. The API team has been working on the transition and already has a working service with data stored in its own database. The UI team is just getting started and wants some functionalities that are lacking in the API at the moment.What would you suggest in this scenario?', 'ques_type': 2, 'options': ['Implement the required APIs in the service and let the UI team access data through the APIs.', 'Have the UI connect to the database owned by the API team directly. Since this is the company’s UI, there should be no issues.', 'Periodically copy all the data from the database of the API team to a new database owned by the UI team and use this new database for the UI.', 'Implement the required UI logic in the API service itself.'], 'score': 'Implement the required APIs in the service and let the UI team access data through the APIs.'}]</t>
+    <t>questions = [
+    {
+        "title": "You are asked to develop an architecture for a platform-independent, browser-based, online two-player game. You are given the following requirements:The rules of the game (who starts the game, valid moves, when the game ends, how to select the winner).The browsers that should support this game.The accessibility of the game: It should be accessible to anyone for free, without logging in or purchasing.The target launch date.Which of the following statements is true?",
+        "ques_type": 2,
+        "options": [
+            "The requirements do not specify the OS (Windows/Linux/Mac) to be supported.",
+            "The requirements do not specify if it is a multi-player game.",
+            "The requirements do not specify whether it is a desktop-based game.",
+            "There is enough information to begin working on the software/UI design."
+        ],
+        "score": "There is enough information to begin working on the software/UI design."
+    },
+    {
+        "title": "Your company plans to use cloud data storage solutions for storing some sensitive business data. You recommend that the company encrypt the data before uploading it to the cloud.Which of the following solutions would you recommend?",
+        "ques_type": 2,
+        "options": [
+            "Encrypt data using symmetric encryption algorithms like AES.",
+            "Encrypt data using asymmetric encryption algorithms like RSA.",
+            "Use encoding techniques like Base64.",
+            "Use a digital signature algorithm like ECDSA."
+        ],
+        "score": "Encrypt data using symmetric encryption algorithms like AES."
+    },
+    {
+        "title": "You are overseeing the development of a reporting project for a large e-commerce company with hundreds of thousands of affiliates bringing in traffic and orders. Every month, the company generates a report on the fees to be paid per affiliate, and a report containing the list of orders per affiliate (and some additional details) in CSV/PDF format. On average, each report will be accessed two or three times in its lifetime.Which storage solution do you propose for the reports?",
+        "ques_type": 2,
+        "options": [
+            "Use a relational database to store the CSV report as one of the columns.",
+            "Use a key-value store like Redis to store the contents of the report.",
+            "Use a blob store like Amazon S3/Google cloud platform to store the report and have a reference to the file in the database. ",
+            "Use a NoSQL storage like Cassandra."
+        ],
+        "score": "Use a blob store like Amazon S3/Google cloud platform to store the report and have a reference to the file in the database."
+    },
+    {
+        "title": "Your company has recently decided to transition from a monolithic architecture to a service-oriented architecture. The API team has been working on the transition and already has a working service with data stored in its own database. The UI team is just getting started and wants some functionalities that are lacking in the API at the moment.What would you suggest in this scenario?",
+        "ques_type": 2,
+        "options": [
+            "Implement the required APIs in the service and let the UI team access data through the APIs.",
+            "Have the UI connect to the database owned by the API team directly. Since this is the company\u2019s UI, there should be no issues.",
+            "Periodically copy all the data from the database of the API team to a new database owned by the UI team and use this new database for the UI.",
+            "Implement the required UI logic in the API service itself."
+        ],
+        "score": "Implement the required APIs in the service and let the UI team access data through the APIs."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
